--- a/Data/COS_summary.xlsx
+++ b/Data/COS_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Previous Seasons</t>
   </si>
@@ -43,13 +43,37 @@
   <si>
     <t>MSE</t>
   </si>
+  <si>
+    <r>
+      <t>Total R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,10 +106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,203 +392,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="F3" s="1">
+        <v>0.68676999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="F4" s="1">
+        <v>0.70945999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.78E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.21E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="F5" s="1">
+        <v>0.70343999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>35</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="F6" s="1">
+        <v>0.73175000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.67E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="F7" s="1">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="F8" s="1">
+        <v>0.70857999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="F9" s="1">
+        <v>0.72338000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1.18E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="F10" s="1">
+        <v>0.72231000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1.21E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5.3400000000000001E-3</v>
       </c>
+      <c r="F11" s="1">
+        <v>0.73433000000000004</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
